--- a/문제.xlsx
+++ b/문제.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9108" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="에러, 경고" sheetId="1" r:id="rId1"/>
+    <sheet name="기타문제" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -16,6 +17,31 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>디버그 x64 F5로 돌리는 중 간헐적으로 발생함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금~ 월 동안 디버그 x64 ctrl+f5 , f5 두 개 돌려놓았더니 발생. 메모리는 대략 30MB -&gt; 53~54 MB 로 증가해있었음.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">로그 파일 용량이 시간당  약 6MB임. 10 초마다 기록하는데도 꽤 큼. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메모리 누수 문제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-11-0811:37:00 AM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -56,8 +82,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -81,13 +109,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>398747</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>181463</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -107,6 +135,429 @@
         <a:xfrm>
           <a:off x="106680" y="0"/>
           <a:ext cx="4315427" cy="3496163"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>153825</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>198641</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4198620"/>
+          <a:ext cx="10212225" cy="3734321"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>130853</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>152453</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7620" y="876300"/>
+          <a:ext cx="9412013" cy="381053"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>109990</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>83863</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1325880"/>
+          <a:ext cx="10069330" cy="304843"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>319569</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>38148</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2346960"/>
+          <a:ext cx="10278909" cy="342948"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>102078</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>78138</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="76200" y="2049780"/>
+          <a:ext cx="7973538" cy="238158"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>109990</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9569</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="그림 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3451860"/>
+          <a:ext cx="10069330" cy="314369"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>389971</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>83863</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="그림 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3093720"/>
+          <a:ext cx="9678751" cy="304843"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>304234</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>55284</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="그림 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4198620"/>
+          <a:ext cx="9593014" cy="276264"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>338622</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>74336</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="그림 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4419600"/>
+          <a:ext cx="10297962" cy="295316"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>243359</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>102915</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="그림 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="5303520"/>
+          <a:ext cx="10202699" cy="323895"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>189918</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>26705</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="그림 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="5082540"/>
+          <a:ext cx="9478698" cy="247685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -381,14 +832,81 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="Q32" sqref="Q32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="16.296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A9" s="2">
+        <v>44508.745138888888</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A14" s="2">
+        <v>44509.356249999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A19" s="2">
+        <v>44509.547222222223</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A23" s="2">
+        <v>44509.750694444447</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/문제.xlsx
+++ b/문제.xlsx
@@ -7,8 +7,9 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9108" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="에러, 경고" sheetId="1" r:id="rId1"/>
-    <sheet name="기타문제" sheetId="2" r:id="rId2"/>
+    <sheet name="기타문제" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,19 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>디버그 x64 F5로 돌리는 중 간헐적으로 발생함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>금~ 월 동안 디버그 x64 ctrl+f5 , f5 두 개 돌려놓았더니 발생. 메모리는 대략 30MB -&gt; 53~54 MB 로 증가해있었음.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">로그 파일 용량이 시간당  약 6MB임. 10 초마다 기록하는데도 꽤 큼. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>메모리 누수 문제</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -82,10 +71,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -108,15 +98,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>398747</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>181463</xdr:rowOff>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>130853</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>152453</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -133,38 +123,228 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="106680" y="0"/>
-          <a:ext cx="4315427" cy="3496163"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+          <a:off x="7620" y="876300"/>
+          <a:ext cx="9412013" cy="381053"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>109990</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>83863</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1325880"/>
+          <a:ext cx="10069330" cy="304843"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>319569</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>38148</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2346960"/>
+          <a:ext cx="10278909" cy="342948"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>102078</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>78138</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="76200" y="2049780"/>
+          <a:ext cx="7973538" cy="238158"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>109990</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9569</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="그림 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3451860"/>
+          <a:ext cx="10069330" cy="314369"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>389971</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>83863</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="그림 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3093720"/>
+          <a:ext cx="9678751" cy="304843"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>304234</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>153825</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>198641</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="그림 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+      <xdr:rowOff>55284</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="그림 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -172,7 +352,197 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="4198620"/>
-          <a:ext cx="10212225" cy="3734321"/>
+          <a:ext cx="9593014" cy="276264"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>338622</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>74336</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="그림 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4419600"/>
+          <a:ext cx="10297962" cy="295316"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>243359</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>102915</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="그림 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="5303520"/>
+          <a:ext cx="10202699" cy="323895"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>189918</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>26705</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="그림 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="5082540"/>
+          <a:ext cx="9478698" cy="247685"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>277279</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>17178</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="그림 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="5966460"/>
+          <a:ext cx="7554379" cy="238158"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>300517</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>131494</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="그림 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="6187440"/>
+          <a:ext cx="10259857" cy="352474"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -189,15 +559,96 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>12858</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>179126</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="220980"/>
+          <a:ext cx="10231278" cy="400106"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>213360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>130853</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>152453</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>218252</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>171474</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="662940"/>
+          <a:ext cx="7754432" cy="171474"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>300517</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>74336</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -214,28 +665,28 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7620" y="876300"/>
-          <a:ext cx="9412013" cy="381053"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>109990</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>83863</xdr:rowOff>
+          <a:off x="0" y="220980"/>
+          <a:ext cx="10259857" cy="295316"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>363016</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>219106</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -252,312 +703,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="1325880"/>
-          <a:ext cx="10069330" cy="304843"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>319569</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>38148</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="그림 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="2346960"/>
-          <a:ext cx="10278909" cy="342948"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>102078</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>78138</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="그림 4"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="76200" y="2049780"/>
-          <a:ext cx="7973538" cy="238158"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>109990</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>9569</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="그림 5"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="3451860"/>
-          <a:ext cx="10069330" cy="314369"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>389971</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>83863</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="그림 6"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="3093720"/>
-          <a:ext cx="9678751" cy="304843"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>304234</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>55284</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="그림 7"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="4198620"/>
-          <a:ext cx="9593014" cy="276264"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>338622</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>74336</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="그림 8"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="4419600"/>
-          <a:ext cx="10297962" cy="295316"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>243359</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>102915</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="그림 9"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="5303520"/>
-          <a:ext cx="10202699" cy="323895"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>189918</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>26705</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="그림 10"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="5082540"/>
-          <a:ext cx="9478698" cy="247685"/>
+          <a:off x="0" y="662940"/>
+          <a:ext cx="7640116" cy="219106"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -832,38 +979,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A20"/>
+  <dimension ref="A3:A27"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="Q32" sqref="Q32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A23"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -871,19 +990,14 @@
     <col min="1" max="1" width="16.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-    </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.4">
@@ -906,6 +1020,63 @@
         <v>44509.750694444447</v>
       </c>
     </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A27" s="2">
+        <v>44510.366666666669</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K9:K10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="10.8984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1" s="3">
+        <v>44510.397222222222</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="16.296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1" s="2">
+        <v>44510.75277777778</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/문제.xlsx
+++ b/문제.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9108" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9108" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="기타문제" sheetId="2" r:id="rId1"/>
@@ -646,47 +646,123 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>300517</xdr:colOff>
+      <xdr:colOff>176675</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>74336</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="220980"/>
+          <a:ext cx="10136015" cy="295316"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>486858</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>181000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="662940"/>
+          <a:ext cx="7763958" cy="181000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>395780</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>121968</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="그림 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="220980"/>
-          <a:ext cx="10259857" cy="295316"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1104900"/>
+          <a:ext cx="10355120" cy="342948"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>363016</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>219106</xdr:rowOff>
+      <xdr:colOff>324911</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>190527</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -696,15 +772,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="662940"/>
-          <a:ext cx="7640116" cy="219106"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1546860"/>
+          <a:ext cx="7602011" cy="190527"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1037,7 +1113,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K10" sqref="K9:K10"/>
     </sheetView>
   </sheetViews>
@@ -1061,10 +1137,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1074,7 +1150,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" s="2">
-        <v>44510.75277777778</v>
+        <v>44511.615972222222</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A5" s="2">
+        <v>44511.75277777778</v>
       </c>
     </row>
   </sheetData>
